--- a/Labour_Force_Characteristics_June2024/LFC_Original.xlsx
+++ b/Labour_Force_Characteristics_June2024/LFC_Original.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/Desktop/DA_Projects/Labour_Force_Characteristics_June2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DFFBA157-DE58-A742-B023-EEA1AECF095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE4A5ED0-6790-6E4C-8E01-EF7AF52DB6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="6" xr2:uid="{451AE225-486F-5C40-BB63-CF773295759E}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19600" activeTab="6" xr2:uid="{451AE225-486F-5C40-BB63-CF773295759E}"/>
   </bookViews>
   <sheets>
-    <sheet name="LFC_Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Footnotes and Additional Info" sheetId="1" r:id="rId1"/>
     <sheet name="June 2020" sheetId="6" r:id="rId2"/>
     <sheet name="June 2021" sheetId="5" r:id="rId3"/>
     <sheet name="June 2022" sheetId="4" r:id="rId4"/>
@@ -23,17 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">LFC_5yrs!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">LFC_5yrs!$A$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">LFC_5yrs!$B$5:$L$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">LFC_5yrs!$B$6:$L$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">LFC_5yrs!$A$12</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">LFC_5yrs!$B$10:$L$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">LFC_5yrs!$B$8:$L$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">LFC_5yrs!$A$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">LFC_5yrs!$A$6</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">LFC_5yrs!$A$5</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">LFC_5yrs!$A$6</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">LFC_5yrs!$B$5:$L$5</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">LFC_5yrs!$B$6:$L$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">LFC_5yrs!$B$12:$L$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>Labour force characteristics by age group, monthly, seasonally adjusted 1 2 3 4</t>
   </si>
@@ -190,13 +182,25 @@
     <t>Employment rate</t>
   </si>
   <si>
-    <t>Average Unemployment Rate</t>
-  </si>
-  <si>
     <t>Average Participation Rate</t>
   </si>
   <si>
     <t>Average Employment Rate</t>
+  </si>
+  <si>
+    <t>Max Unemployment Rate</t>
+  </si>
+  <si>
+    <t>Part-time Employment Rate</t>
+  </si>
+  <si>
+    <t>Full-time Employment Rate</t>
+  </si>
+  <si>
+    <t>May 2022 to June 2024 Unemployment Rate Increase</t>
+  </si>
+  <si>
+    <t>Labour Force Characteristics in Ontario for individuals ages 15-24 (monthly, seasonally adjusted)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +211,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,8 +358,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +562,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -669,6 +690,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -716,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -724,10 +822,39 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -872,7 +999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LFC_5yrs!$A$8</c:f>
+              <c:f>LFC_5yrs!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -905,9 +1032,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LFC_5yrs!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LFC_5yrs!$B$8:$L$8</c:f>
+              <c:f>LFC_5yrs!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -959,7 +1128,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LFC_5yrs!$A$10</c:f>
+              <c:f>LFC_5yrs!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -992,9 +1161,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LFC_5yrs!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LFC_5yrs!$B$10:$L$10</c:f>
+              <c:f>LFC_5yrs!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1061,6 +1272,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1099,7 +1311,7 @@
         </c:txPr>
         <c:crossAx val="1613338591"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1328,7 +1540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LFC_5yrs!$A$5</c:f>
+              <c:f>LFC_5yrs!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1347,9 +1559,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>LFC_5yrs!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LFC_5yrs!$B$5:$L$5</c:f>
+              <c:f>LFC_5yrs!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1400,7 +1654,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LFC_5yrs!$A$6</c:f>
+              <c:f>LFC_5yrs!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,9 +1673,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>LFC_5yrs!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LFC_5yrs!$B$6:$L$6</c:f>
+              <c:f>LFC_5yrs!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1487,7 +1783,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1526,7 +1822,7 @@
         </c:txPr>
         <c:crossAx val="6087344"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -2766,16 +3062,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>248920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223521</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>731521</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2802,16 +3098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328507</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>599440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54186</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3158,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B88A52-7C0A-E049-8B60-714F43C73A82}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5017,426 +5313,573 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96778291-CF01-E74B-8534-F33843760375}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B3" s="19">
         <v>43617</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C3" s="19">
         <v>43952</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D3" s="19">
         <v>43983</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E3" s="19">
         <v>44317</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F3" s="19">
         <v>44348</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G3" s="19">
         <v>44682</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H3" s="19">
         <v>44713</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I3" s="19">
         <v>45047</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J3" s="19">
         <v>45078</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K3" s="19">
         <v>45413</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L3" s="19">
         <v>45444</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="20">
         <v>1874.4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="20">
         <v>1870.2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="20">
         <v>1869</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E4" s="20">
         <v>1858.7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="20">
         <v>1855.3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G4" s="20">
         <v>1853.8</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H4" s="20">
         <v>1854.3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I4" s="20">
         <v>1905.6</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J4" s="20">
         <v>1915</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K4" s="20">
         <v>2060.6</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L4" s="20">
         <v>2073.8000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="20">
         <v>1177.9000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="18">
         <v>949.4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="20">
         <v>1058.2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="20">
         <v>1057.5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="20">
         <v>1127.5999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G5" s="20">
         <v>1168.9000000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H5" s="20">
         <v>1152.8</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I5" s="20">
         <v>1203.7</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J5" s="20">
         <v>1214.4000000000001</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K5" s="20">
         <v>1232.8</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L5" s="20">
         <v>1262.5999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="20">
         <v>1038.0999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="18">
         <v>651.4</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="18">
         <v>739.5</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="18">
         <v>839.9</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="18">
         <v>934.1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="20">
         <v>1041.7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H6" s="20">
         <v>1030.3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I6" s="20">
         <v>1046.5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J6" s="20">
         <v>1051.3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K6" s="20">
         <v>1045.9000000000001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L6" s="20">
         <v>1054.4000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="18">
         <v>506.1</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="18">
         <v>386.5</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="18">
         <v>412</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="18">
         <v>446.3</v>
       </c>
-      <c r="F5">
+      <c r="F7" s="18">
         <v>471.9</v>
       </c>
-      <c r="G5">
+      <c r="G7" s="18">
         <v>542.79999999999995</v>
       </c>
-      <c r="H5">
+      <c r="H7" s="18">
         <v>546</v>
       </c>
-      <c r="I5">
+      <c r="I7" s="18">
         <v>529.70000000000005</v>
       </c>
-      <c r="J5">
+      <c r="J7" s="18">
         <v>538.70000000000005</v>
       </c>
-      <c r="K5">
+      <c r="K7" s="18">
         <v>524.5</v>
       </c>
-      <c r="L5">
+      <c r="L7" s="18">
         <v>521.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="18">
         <v>532</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="18">
         <v>264.89999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="18">
         <v>327.5</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="18">
         <v>393.6</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="18">
         <v>462.2</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="18">
         <v>498.9</v>
       </c>
-      <c r="H6">
+      <c r="H8" s="18">
         <v>484.3</v>
       </c>
-      <c r="I6">
+      <c r="I8" s="18">
         <v>516.79999999999995</v>
       </c>
-      <c r="J6">
+      <c r="J8" s="18">
         <v>512.6</v>
       </c>
-      <c r="K6">
+      <c r="K8" s="18">
         <v>521.5</v>
       </c>
-      <c r="L6">
+      <c r="L8" s="18">
         <v>533.29999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="18">
         <v>139.9</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="18">
         <v>298</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="18">
         <v>318.60000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E9" s="18">
         <v>217.5</v>
       </c>
-      <c r="F7">
+      <c r="F9" s="18">
         <v>193.5</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="18">
         <v>127.2</v>
       </c>
-      <c r="H7">
+      <c r="H9" s="18">
         <v>122.5</v>
       </c>
-      <c r="I7">
+      <c r="I9" s="18">
         <v>157.19999999999999</v>
       </c>
-      <c r="J7">
+      <c r="J9" s="18">
         <v>163.1</v>
       </c>
-      <c r="K7">
+      <c r="K9" s="18">
         <v>186.9</v>
       </c>
-      <c r="L7">
+      <c r="L9" s="18">
         <v>208.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B10" s="21">
         <v>11.9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C10" s="21">
         <v>31.4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D10" s="21">
         <v>30.1</v>
       </c>
-      <c r="E8">
+      <c r="E10" s="18">
         <v>20.6</v>
       </c>
-      <c r="F8">
+      <c r="F10" s="18">
         <v>17.2</v>
       </c>
-      <c r="G8">
+      <c r="G10" s="18">
         <v>10.9</v>
       </c>
-      <c r="H8">
+      <c r="H10" s="18">
         <v>10.6</v>
       </c>
-      <c r="I8">
+      <c r="I10" s="18">
         <v>13.1</v>
       </c>
-      <c r="J8">
+      <c r="J10" s="18">
         <v>13.4</v>
       </c>
-      <c r="K8">
+      <c r="K10" s="18">
         <v>15.2</v>
       </c>
-      <c r="L8">
+      <c r="L10" s="18">
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B11" s="21">
         <v>62.8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C11" s="21">
         <v>50.8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D11" s="22">
         <v>56.6</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="18">
         <v>56.9</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="18">
         <v>60.8</v>
       </c>
-      <c r="G9">
+      <c r="G11" s="18">
         <v>63.1</v>
       </c>
-      <c r="H9">
+      <c r="H11" s="18">
         <v>62.2</v>
       </c>
-      <c r="I9">
+      <c r="I11" s="18">
         <v>63.2</v>
       </c>
-      <c r="J9">
+      <c r="J11" s="18">
         <v>63.4</v>
       </c>
-      <c r="K9">
+      <c r="K11" s="18">
         <v>59.8</v>
       </c>
-      <c r="L9">
+      <c r="L11" s="18">
         <v>60.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B12" s="21">
         <v>55.4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C12" s="21">
         <v>34.799999999999997</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D12" s="21">
         <v>39.6</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="18">
         <v>45.2</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="18">
         <v>50.3</v>
       </c>
-      <c r="G10">
+      <c r="G12" s="18">
         <v>56.2</v>
       </c>
-      <c r="H10">
+      <c r="H12" s="18">
         <v>55.6</v>
       </c>
-      <c r="I10">
+      <c r="I12" s="18">
         <v>54.9</v>
       </c>
-      <c r="J10">
+      <c r="J12" s="18">
         <v>54.9</v>
       </c>
-      <c r="K10">
+      <c r="K12" s="18">
         <v>50.8</v>
       </c>
-      <c r="L10">
+      <c r="L12" s="18">
         <v>50.8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="23">
+        <f>B7/B6</f>
+        <v>0.48752528658125427</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:L13" si="0">C7/C6</f>
+        <v>0.59333742708013515</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.55713319810682893</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.53137278247410413</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.50519216357991648</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.52107132571757697</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.52994273512569157</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.50616340181557573</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.51241320270141733</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.50148197724447841</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.49421471927162364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="23">
+        <f>B8/B6</f>
+        <v>0.51247471341874584</v>
+      </c>
+      <c r="C14" s="23">
+        <f>C8/C6</f>
+        <v>0.40666257291986491</v>
+      </c>
+      <c r="D14" s="23">
+        <f>D8/D6</f>
+        <v>0.44286680189317107</v>
+      </c>
+      <c r="E14" s="23">
+        <f>E8/E6</f>
+        <v>0.46862721752589598</v>
+      </c>
+      <c r="F14" s="23">
+        <f>F8/F6</f>
+        <v>0.49480783642008347</v>
+      </c>
+      <c r="G14" s="23">
+        <f>G8/G6</f>
+        <v>0.47892867428242292</v>
+      </c>
+      <c r="H14" s="23">
+        <f>H8/H6</f>
+        <v>0.47005726487430849</v>
+      </c>
+      <c r="I14" s="23">
+        <f>I8/I6</f>
+        <v>0.49383659818442421</v>
+      </c>
+      <c r="J14" s="23">
+        <f>J8/J6</f>
+        <v>0.48758679729858273</v>
+      </c>
+      <c r="K14" s="23">
+        <f>K8/K6</f>
+        <v>0.49861363419064914</v>
+      </c>
+      <c r="L14" s="23">
+        <f>L8/L6</f>
+        <v>0.50578528072837625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4">
-        <f>AVERAGE($B8:$L8)</f>
-        <v>17.354545454545455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="B16" s="4">
+        <f>AVERAGE($B11:$L11)</f>
+        <v>60.045454545454533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4">
-        <f>AVERAGE($B9:$L9)</f>
-        <v>60.045454545454533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="B17" s="4">
+        <f>AVERAGE($B12:$L12)</f>
+        <v>49.863636363636367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4">
-        <f>AVERAGE($B10:$L10)</f>
-        <v>49.863636363636367</v>
-      </c>
+      <c r="B18">
+        <f>MAX(B10:L10)</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11">
+        <f>L10-H10</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Labour_Force_Characteristics_June2024/LFC_Original.xlsx
+++ b/Labour_Force_Characteristics_June2024/LFC_Original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/Desktop/DA_Projects/Labour_Force_Characteristics_June2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE4A5ED0-6790-6E4C-8E01-EF7AF52DB6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26C807AB-CA1D-7547-9B2C-AA1750C512C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19600" activeTab="6" xr2:uid="{451AE225-486F-5C40-BB63-CF773295759E}"/>
   </bookViews>
@@ -3454,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B88A52-7C0A-E049-8B60-714F43C73A82}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5316,7 +5316,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
